--- a/IEDC_LookupTable_fill/licences_data.xlsx
+++ b/IEDC_LookupTable_fill/licences_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,6 @@
     <t>reserve2</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>none/all rights reserved</t>
-  </si>
-  <si>
     <t>CC BY</t>
   </si>
   <si>
@@ -44,13 +38,28 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>unknown/not specified</t>
+  </si>
+  <si>
+    <t>all rights reserved</t>
+  </si>
+  <si>
+    <t>CC BY SA 4.0</t>
+  </si>
+  <si>
+    <t>Crown Copyright</t>
+  </si>
+  <si>
+    <t>© 2012 Macmillan Publishers Limited. All rights reserved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +77,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -92,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -103,9 +117,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -407,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -435,54 +451,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IEDC_LookupTable_fill/licences_data.xlsx
+++ b/IEDC_LookupTable_fill/licences_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>© 2012 Macmillan Publishers Limited. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Creative Commons CC0 1.0 Universal Public Domain Dedication</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,6 +526,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
